--- a/data/raven-tekken-8-frame-data.xlsx
+++ b/data/raven-tekken-8-frame-data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H195"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,15 +492,11 @@
       <c r="D2" t="n">
         <v>10</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -522,15 +518,11 @@
       <c r="D3" t="n">
         <v>14</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="E3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
@@ -554,15 +546,11 @@
         <v>17</v>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
@@ -606,15 +594,11 @@
         <v>17</v>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -635,10 +619,8 @@
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>+21 (+11)</t>
-        </is>
+      <c r="F7" t="n">
+        <v>21</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
@@ -662,15 +644,11 @@
         <v>37</v>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-14~-12</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>+15 (-2)</t>
-        </is>
+      <c r="E8" t="n">
+        <v>14</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
@@ -696,15 +674,11 @@
       <c r="D9" t="n">
         <v>12</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
@@ -730,15 +704,11 @@
       <c r="D10" t="n">
         <v>10</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -760,15 +730,11 @@
       <c r="D11" t="n">
         <v>16</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
@@ -792,15 +758,11 @@
         <v>19</v>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E12" t="n">
+        <v>13</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-2</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
@@ -826,15 +788,11 @@
       <c r="D13" t="n">
         <v>12</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
@@ -858,15 +816,11 @@
         <v>25</v>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-8~-7</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>+8~+9</t>
-        </is>
+      <c r="E14" t="n">
+        <v>8</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
@@ -890,15 +844,11 @@
         <v>10</v>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-8~-7</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>+3~+4</t>
-        </is>
+      <c r="E15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
@@ -918,15 +868,11 @@
         <v>26</v>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>-8~-7</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>+5~+6</t>
-        </is>
+      <c r="E16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
@@ -950,15 +896,11 @@
         <v>46</v>
       </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>+39 (-19)</t>
-        </is>
+      <c r="E17" t="n">
+        <v>9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>39</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -986,15 +928,11 @@
         <v>46</v>
       </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>-16~-15</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-3~-2</t>
-        </is>
+      <c r="E18" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-3</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -1032,15 +970,11 @@
       <c r="D20" t="n">
         <v>25</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-9~-4</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>+19</t>
-        </is>
+      <c r="E20" t="n">
+        <v>9</v>
+      </c>
+      <c r="F20" t="n">
+        <v>19</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
@@ -1064,15 +998,11 @@
         <v>26</v>
       </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-39~-36</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
+      <c r="E21" t="n">
+        <v>39</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-8</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -1094,15 +1024,11 @@
       <c r="D22" t="n">
         <v>12</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>-7~-6</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>+3~+4</t>
-        </is>
+      <c r="E22" t="n">
+        <v>7</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -1122,15 +1048,11 @@
         <v>29</v>
       </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>-3~-2</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>+7~+8</t>
-        </is>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>7</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
@@ -1156,15 +1078,11 @@
       <c r="D24" t="n">
         <v>16</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>-16~-15</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>+31 (+21)</t>
-        </is>
+      <c r="E24" t="n">
+        <v>16</v>
+      </c>
+      <c r="F24" t="n">
+        <v>31</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1184,15 +1102,11 @@
         <v>33</v>
       </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>-13~-2</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>+4~+5</t>
-        </is>
+      <c r="E25" t="n">
+        <v>13</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
@@ -1216,15 +1130,11 @@
         <v>36</v>
       </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>-3~+0</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>14</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
@@ -1248,15 +1158,11 @@
         <v>38</v>
       </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>-14~-13</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="E27" t="n">
+        <v>14</v>
+      </c>
+      <c r="F27" t="n">
+        <v>15</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
@@ -1282,15 +1188,11 @@
       <c r="D28" t="n">
         <v>16</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>+7~+8</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>+10~+11</t>
-        </is>
+      <c r="E28" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F28" t="n">
+        <v>10</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
@@ -1316,15 +1218,11 @@
       <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>-15~-13</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>+20 (+10)</t>
-        </is>
+      <c r="E29" t="n">
+        <v>15</v>
+      </c>
+      <c r="F29" t="n">
+        <v>20</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
@@ -1365,10 +1263,8 @@
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>-31</t>
-        </is>
+      <c r="F31" t="n">
+        <v>-31</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
@@ -1390,15 +1286,11 @@
       <c r="D32" t="n">
         <v>15</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>-14~-12</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>-3~-1</t>
-        </is>
+      <c r="E32" t="n">
+        <v>14</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-3</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
@@ -1418,15 +1310,11 @@
         <v>29</v>
       </c>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E33" t="n">
+        <v>3</v>
+      </c>
+      <c r="F33" t="n">
+        <v>6</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1454,15 +1342,11 @@
         <v>49</v>
       </c>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>-30~-29</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E34" t="n">
+        <v>30</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
@@ -1488,15 +1372,11 @@
       <c r="D35" t="n">
         <v>21</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>-19~-18</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>+12 (-5)</t>
-        </is>
+      <c r="E35" t="n">
+        <v>19</v>
+      </c>
+      <c r="F35" t="n">
+        <v>12</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1524,15 +1404,11 @@
         <v>29</v>
       </c>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>-7~-6</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>+4~+5</t>
-        </is>
+      <c r="E36" t="n">
+        <v>7</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
@@ -1556,15 +1432,11 @@
         <v>50</v>
       </c>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>-14~-13</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>+24 (+9)</t>
-        </is>
+      <c r="E37" t="n">
+        <v>14</v>
+      </c>
+      <c r="F37" t="n">
+        <v>24</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
@@ -1590,15 +1462,11 @@
       <c r="D38" t="n">
         <v>27</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>+4~+6</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="E38" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F38" t="n">
+        <v>15</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
@@ -1640,15 +1508,11 @@
       <c r="D40" t="n">
         <v>14</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>-9~-8</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>-1~+0</t>
-        </is>
+      <c r="E40" t="n">
+        <v>9</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-1</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
@@ -1672,15 +1536,11 @@
         <v>33</v>
       </c>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>-8~-6</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>+6~+8</t>
-        </is>
+      <c r="E41" t="n">
+        <v>8</v>
+      </c>
+      <c r="F41" t="n">
+        <v>6</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
@@ -1704,15 +1564,11 @@
         <v>37</v>
       </c>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>+1~+6</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>+2~+7</t>
-        </is>
+      <c r="E42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1740,15 +1596,11 @@
         <v>48</v>
       </c>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E43" t="n">
+        <v>11</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -1768,15 +1620,11 @@
         <v>63</v>
       </c>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>-25~-21</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E44" t="n">
+        <v>25</v>
+      </c>
+      <c r="F44" t="n">
+        <v>6</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
@@ -1801,10 +1649,8 @@
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="F45" t="n">
+        <v>-4</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
@@ -1830,15 +1676,11 @@
       <c r="D46" t="n">
         <v>40</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>+6~+9</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>+28 (+19)</t>
-        </is>
+      <c r="E46" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F46" t="n">
+        <v>28</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
@@ -1864,15 +1706,11 @@
       <c r="D47" t="n">
         <v>17</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>-10~-9</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>+5~+6</t>
-        </is>
+      <c r="E47" t="n">
+        <v>10</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
@@ -1896,15 +1734,11 @@
         <v>71</v>
       </c>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>-8~+2</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E48" t="n">
+        <v>8</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
@@ -1926,15 +1760,11 @@
       <c r="D49" t="n">
         <v>8</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>-1~+0</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>+5~+6</t>
-        </is>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>5</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
@@ -1956,15 +1786,11 @@
       <c r="D50" t="n">
         <v>15</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>+30 (+22)</t>
-        </is>
+      <c r="E50" t="n">
+        <v>13</v>
+      </c>
+      <c r="F50" t="n">
+        <v>30</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
@@ -1988,15 +1814,11 @@
         <v>30</v>
       </c>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>-8~-7</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>+40 (-18)</t>
-        </is>
+      <c r="E51" t="n">
+        <v>8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>40</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2026,15 +1848,11 @@
       <c r="D52" t="n">
         <v>10</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>7</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
@@ -2054,15 +1872,11 @@
         <v>23</v>
       </c>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E53" t="n">
+        <v>3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
@@ -2086,15 +1900,11 @@
         <v>23</v>
       </c>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>7</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
@@ -2114,15 +1924,11 @@
         <v>28</v>
       </c>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>-9~-8</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>+2~+3</t>
-        </is>
+      <c r="E55" t="n">
+        <v>9</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
@@ -2146,15 +1952,11 @@
         <v>49</v>
       </c>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>-14~-13</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>+2 (-7)</t>
-        </is>
+      <c r="E56" t="n">
+        <v>14</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
@@ -2178,15 +1980,11 @@
         <v>28</v>
       </c>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>-7~-6</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>+8~+9</t>
-        </is>
+      <c r="E57" t="n">
+        <v>7</v>
+      </c>
+      <c r="F57" t="n">
+        <v>8</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
@@ -2208,15 +2006,11 @@
       <c r="D58" t="n">
         <v>10</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E58" t="n">
+        <v>11</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
@@ -2238,15 +2032,11 @@
       <c r="D59" t="n">
         <v>15</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>-20~-19</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>+43 (+39)</t>
-        </is>
+      <c r="E59" t="n">
+        <v>20</v>
+      </c>
+      <c r="F59" t="n">
+        <v>43</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
@@ -2266,15 +2056,11 @@
         <v>27</v>
       </c>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>+0~+2</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>+1~+3</t>
-        </is>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2302,15 +2088,11 @@
         <v>49</v>
       </c>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>-6~-3</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>+18</t>
-        </is>
+      <c r="E61" t="n">
+        <v>6</v>
+      </c>
+      <c r="F61" t="n">
+        <v>18</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
@@ -2330,15 +2112,11 @@
         <v>48</v>
       </c>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>-9~-8</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E62" t="n">
+        <v>9</v>
+      </c>
+      <c r="F62" t="n">
+        <v>5</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
@@ -2362,10 +2140,8 @@
         <v>48</v>
       </c>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>-36</t>
-        </is>
+      <c r="E63" t="n">
+        <v>36</v>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
@@ -2388,15 +2164,11 @@
       <c r="D64" t="n">
         <v>19</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>-5~-4</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>+44 (-14)</t>
-        </is>
+      <c r="E64" t="n">
+        <v>5</v>
+      </c>
+      <c r="F64" t="n">
+        <v>44</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
@@ -2422,15 +2194,11 @@
       <c r="D65" t="n">
         <v>16</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>-2~-1</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>+6~+7</t>
-        </is>
+      <c r="E65" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" t="n">
+        <v>6</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
@@ -2450,15 +2218,11 @@
         <v>42</v>
       </c>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>-20~-19</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>+42 (+38)</t>
-        </is>
+      <c r="E66" t="n">
+        <v>20</v>
+      </c>
+      <c r="F66" t="n">
+        <v>42</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
@@ -2482,15 +2246,11 @@
         <v>30</v>
       </c>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>-9~-8</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>+2~+3</t>
-        </is>
+      <c r="E67" t="n">
+        <v>9</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
@@ -2516,15 +2276,11 @@
       <c r="D68" t="n">
         <v>18</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>+4~+5</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>+41</t>
-        </is>
+      <c r="E68" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F68" t="n">
+        <v>41</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
@@ -2570,15 +2326,11 @@
       <c r="D70" t="n">
         <v>10</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E70" t="n">
+        <v>3</v>
+      </c>
+      <c r="F70" t="n">
+        <v>6</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
@@ -2600,15 +2352,11 @@
       <c r="D71" t="n">
         <v>25</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>-26~-24</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>+0~+2</t>
-        </is>
+      <c r="E71" t="n">
+        <v>26</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
@@ -2630,15 +2378,11 @@
       <c r="D72" t="n">
         <v>25</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>-26</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E72" t="n">
+        <v>26</v>
+      </c>
+      <c r="F72" t="n">
+        <v>70</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2664,15 +2408,11 @@
       <c r="D73" t="n">
         <v>12</v>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="E73" t="n">
+        <v>15</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-4</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
@@ -2694,15 +2434,11 @@
       <c r="D74" t="n">
         <v>16</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E74" t="n">
+        <v>8</v>
+      </c>
+      <c r="F74" t="n">
+        <v>6</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
@@ -2747,10 +2483,8 @@
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="F76" t="n">
+        <v>5</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
@@ -2772,15 +2506,11 @@
       <c r="D77" t="n">
         <v>17</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>-5~-4</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>+6~+7</t>
-        </is>
+      <c r="E77" t="n">
+        <v>5</v>
+      </c>
+      <c r="F77" t="n">
+        <v>6</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
@@ -2800,15 +2530,11 @@
         <v>28</v>
       </c>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>-7~-6</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>+14~+15</t>
-        </is>
+      <c r="E78" t="n">
+        <v>7</v>
+      </c>
+      <c r="F78" t="n">
+        <v>14</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
@@ -2832,15 +2558,11 @@
         <v>30</v>
       </c>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>-7~-6</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>+4~+5</t>
-        </is>
+      <c r="E79" t="n">
+        <v>7</v>
+      </c>
+      <c r="F79" t="n">
+        <v>4</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
@@ -2864,15 +2586,11 @@
         <v>51</v>
       </c>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>-14~-13</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>+24 (+9)</t>
-        </is>
+      <c r="E80" t="n">
+        <v>14</v>
+      </c>
+      <c r="F80" t="n">
+        <v>24</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
@@ -2898,15 +2616,11 @@
       <c r="D81" t="n">
         <v>13</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>-5~-4</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>+3~+4</t>
-        </is>
+      <c r="E81" t="n">
+        <v>5</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -2936,15 +2650,11 @@
       <c r="D82" t="n">
         <v>25</v>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>-9~-7</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E82" t="n">
+        <v>9</v>
+      </c>
+      <c r="F82" t="n">
+        <v>5</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
@@ -2968,15 +2678,11 @@
         <v>24</v>
       </c>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>-36</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>-22</t>
-        </is>
+      <c r="E83" t="n">
+        <v>36</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-22</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
@@ -2996,15 +2702,11 @@
         <v>17</v>
       </c>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E84" t="n">
+        <v>8</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3030,15 +2732,11 @@
       <c r="D85" t="n">
         <v>16</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E85" t="n">
+        <v>9</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
@@ -3058,15 +2756,11 @@
         <v>24</v>
       </c>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>-9~-8</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>+5~+6</t>
-        </is>
+      <c r="E86" t="n">
+        <v>9</v>
+      </c>
+      <c r="F86" t="n">
+        <v>5</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
@@ -3090,15 +2784,11 @@
         <v>24</v>
       </c>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>-6~-5</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>+8~+9</t>
-        </is>
+      <c r="E87" t="n">
+        <v>6</v>
+      </c>
+      <c r="F87" t="n">
+        <v>8</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
@@ -3120,15 +2810,11 @@
       <c r="D88" t="n">
         <v>21</v>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>-9~-8</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E88" t="n">
+        <v>9</v>
+      </c>
+      <c r="F88" t="n">
+        <v>8</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
@@ -3150,15 +2836,11 @@
       <c r="D89" t="n">
         <v>23</v>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>-18~-11</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>+24</t>
-        </is>
+      <c r="E89" t="n">
+        <v>18</v>
+      </c>
+      <c r="F89" t="n">
+        <v>24</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
@@ -3196,15 +2878,11 @@
       <c r="D91" t="n">
         <v>10</v>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E91" t="n">
+        <v>5</v>
+      </c>
+      <c r="F91" t="n">
+        <v>6</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
@@ -3226,15 +2904,11 @@
       <c r="D92" t="n">
         <v>11</v>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E92" t="n">
+        <v>4</v>
+      </c>
+      <c r="F92" t="n">
+        <v>7</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
@@ -3256,15 +2930,11 @@
       <c r="D93" t="n">
         <v>15</v>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E93" t="n">
+        <v>11</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
@@ -3286,15 +2956,11 @@
       <c r="D94" t="n">
         <v>21</v>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E94" t="n">
+        <v>13</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-2</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3320,15 +2986,11 @@
       <c r="D95" t="n">
         <v>13</v>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>-4~-3</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>+5~+6</t>
-        </is>
+      <c r="E95" t="n">
+        <v>4</v>
+      </c>
+      <c r="F95" t="n">
+        <v>5</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
@@ -3348,15 +3010,11 @@
         <v>28</v>
       </c>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>-1~+0</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>+8~+9</t>
-        </is>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>8</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
@@ -3380,15 +3038,11 @@
         <v>49</v>
       </c>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>-14~-13</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>+2 (-7)</t>
-        </is>
+      <c r="E97" t="n">
+        <v>14</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
@@ -3412,15 +3066,11 @@
         <v>28</v>
       </c>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E98" t="n">
+        <v>4</v>
+      </c>
+      <c r="F98" t="n">
+        <v>5</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
@@ -3442,15 +3092,11 @@
       <c r="D99" t="n">
         <v>28</v>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>-12~-11</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>+5~+6</t>
-        </is>
+      <c r="E99" t="n">
+        <v>12</v>
+      </c>
+      <c r="F99" t="n">
+        <v>5</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3476,15 +3122,11 @@
       <c r="D100" t="n">
         <v>24</v>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>-14~-13</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>+4~+5</t>
-        </is>
+      <c r="E100" t="n">
+        <v>14</v>
+      </c>
+      <c r="F100" t="n">
+        <v>4</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3510,15 +3152,11 @@
       <c r="D101" t="n">
         <v>14</v>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>-2~-1</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>+8~+9</t>
-        </is>
+      <c r="E101" t="n">
+        <v>2</v>
+      </c>
+      <c r="F101" t="n">
+        <v>8</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
@@ -3540,15 +3178,11 @@
       <c r="D102" t="n">
         <v>24</v>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>+11 (+2)</t>
-        </is>
+      <c r="E102" t="n">
+        <v>9</v>
+      </c>
+      <c r="F102" t="n">
+        <v>11</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
@@ -3572,15 +3206,11 @@
         <v>36</v>
       </c>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>-14~-13</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>+24 (+9)</t>
-        </is>
+      <c r="E103" t="n">
+        <v>14</v>
+      </c>
+      <c r="F103" t="n">
+        <v>24</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
@@ -3604,15 +3234,11 @@
         <v>68</v>
       </c>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>-8~+2</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E104" t="n">
+        <v>8</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
@@ -3632,15 +3258,11 @@
         <v>15</v>
       </c>
       <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>13</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3666,15 +3288,11 @@
       <c r="D106" t="n">
         <v>25</v>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>-12~-11</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>+5~+6</t>
-        </is>
+      <c r="E106" t="n">
+        <v>12</v>
+      </c>
+      <c r="F106" t="n">
+        <v>5</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -3698,15 +3316,11 @@
         <v>43</v>
       </c>
       <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>-9~-8</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>+24 (+14)</t>
-        </is>
+      <c r="E107" t="n">
+        <v>9</v>
+      </c>
+      <c r="F107" t="n">
+        <v>24</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
@@ -3732,15 +3346,11 @@
       <c r="D108" t="n">
         <v>16</v>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>-7~-6</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="E108" t="n">
+        <v>7</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-4</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
@@ -3766,15 +3376,11 @@
       <c r="D109" t="n">
         <v>18</v>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>-14~-12</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>+32 (+22)</t>
-        </is>
+      <c r="E109" t="n">
+        <v>14</v>
+      </c>
+      <c r="F109" t="n">
+        <v>32</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
@@ -3816,15 +3422,11 @@
       <c r="D111" t="n">
         <v>20</v>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E111" t="n">
+        <v>15</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
@@ -3848,15 +3450,11 @@
         <v>40</v>
       </c>
       <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="E112" t="n">
+        <v>3</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-4</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
@@ -3882,15 +3480,11 @@
       <c r="D113" t="n">
         <v>14</v>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>-3~-2</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>+8~+9</t>
-        </is>
+      <c r="E113" t="n">
+        <v>3</v>
+      </c>
+      <c r="F113" t="n">
+        <v>8</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
@@ -3912,15 +3506,11 @@
       <c r="D114" t="n">
         <v>15</v>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>+0~+1</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>+23</t>
-        </is>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>23</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
@@ -3944,15 +3534,11 @@
         <v>37</v>
       </c>
       <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>-14~-5</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>+32 (-26)</t>
-        </is>
+      <c r="E115" t="n">
+        <v>14</v>
+      </c>
+      <c r="F115" t="n">
+        <v>32</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
@@ -3976,15 +3562,11 @@
         <v>12</v>
       </c>
       <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>+1~+2</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>+12~+13</t>
-        </is>
+      <c r="E116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F116" t="n">
+        <v>12</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -4006,15 +3588,11 @@
       <c r="D117" t="n">
         <v>18</v>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>+7 (-2)</t>
-        </is>
+      <c r="E117" t="n">
+        <v>9</v>
+      </c>
+      <c r="F117" t="n">
+        <v>7</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
@@ -4040,15 +3618,11 @@
       <c r="D118" t="n">
         <v>16</v>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>-4~-3</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>+5~+6</t>
-        </is>
+      <c r="E118" t="n">
+        <v>4</v>
+      </c>
+      <c r="F118" t="n">
+        <v>5</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
@@ -4068,15 +3642,11 @@
         <v>37</v>
       </c>
       <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>-14~-13</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>+24 (+9)</t>
-        </is>
+      <c r="E119" t="n">
+        <v>14</v>
+      </c>
+      <c r="F119" t="n">
+        <v>24</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
@@ -4102,15 +3672,11 @@
       <c r="D120" t="n">
         <v>17</v>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>-16~-9</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>+2~+9</t>
-        </is>
+      <c r="E120" t="n">
+        <v>16</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -4184,15 +3750,11 @@
       <c r="D124" t="n">
         <v>27</v>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>+6~+7</t>
-        </is>
+      <c r="E124" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F124" t="n">
+        <v>6</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
@@ -4218,15 +3780,11 @@
       <c r="D125" t="n">
         <v>31</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>-16~-15</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>+16</t>
-        </is>
+      <c r="E125" t="n">
+        <v>16</v>
+      </c>
+      <c r="F125" t="n">
+        <v>16</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
@@ -4246,15 +3804,11 @@
         <v>63</v>
       </c>
       <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>-6~-4</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>+18</t>
-        </is>
+      <c r="E126" t="n">
+        <v>6</v>
+      </c>
+      <c r="F126" t="n">
+        <v>18</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
@@ -4276,15 +3830,11 @@
       <c r="D127" t="n">
         <v>20</v>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>-9~-8</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>+22 (+12)</t>
-        </is>
+      <c r="E127" t="n">
+        <v>9</v>
+      </c>
+      <c r="F127" t="n">
+        <v>22</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
@@ -4310,15 +3860,11 @@
       <c r="D128" t="n">
         <v>16</v>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E128" t="n">
+        <v>6</v>
+      </c>
+      <c r="F128" t="n">
+        <v>5</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
@@ -4338,15 +3884,11 @@
         <v>24</v>
       </c>
       <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>-13~-12</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>-2~-1</t>
-        </is>
+      <c r="E129" t="n">
+        <v>13</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-2</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
@@ -4387,10 +3929,8 @@
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>-19</t>
-        </is>
+      <c r="F131" t="n">
+        <v>-19</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
@@ -4416,15 +3956,11 @@
       <c r="D132" t="n">
         <v>12</v>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E132" t="n">
+        <v>2</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
@@ -4450,15 +3986,11 @@
       <c r="D133" t="n">
         <v>29</v>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
+      <c r="E133" t="n">
+        <v>9</v>
+      </c>
+      <c r="F133" t="n">
+        <v>20</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
@@ -4484,15 +4016,11 @@
       <c r="D134" t="n">
         <v>23</v>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>-16~-14</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
+      <c r="E134" t="n">
+        <v>16</v>
+      </c>
+      <c r="F134" t="n">
+        <v>14</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
@@ -4516,15 +4044,11 @@
         <v>32</v>
       </c>
       <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>-25~-21</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E135" t="n">
+        <v>25</v>
+      </c>
+      <c r="F135" t="n">
+        <v>6</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
@@ -4544,15 +4068,11 @@
         <v>26</v>
       </c>
       <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>-11~-10</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>+0~+1</t>
-        </is>
+      <c r="E136" t="n">
+        <v>11</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
@@ -4572,15 +4092,11 @@
         <v>47</v>
       </c>
       <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
+      <c r="E137" t="n">
+        <v>13</v>
+      </c>
+      <c r="F137" t="n">
+        <v>10</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
@@ -4602,15 +4118,11 @@
       <c r="D138" t="n">
         <v>20</v>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>-9~-8</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>+22 (+12)</t>
-        </is>
+      <c r="E138" t="n">
+        <v>9</v>
+      </c>
+      <c r="F138" t="n">
+        <v>22</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
@@ -4634,15 +4146,11 @@
         <v>34</v>
       </c>
       <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>+9~12</t>
-        </is>
+      <c r="E139" t="n">
+        <v>15</v>
+      </c>
+      <c r="F139" t="n">
+        <v>9</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -4670,15 +4178,11 @@
         <v>34</v>
       </c>
       <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>-16~-15</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>+15 (+5)</t>
-        </is>
+      <c r="E140" t="n">
+        <v>16</v>
+      </c>
+      <c r="F140" t="n">
+        <v>15</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
@@ -4700,15 +4204,11 @@
       <c r="D141" t="n">
         <v>23</v>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>-13~-11</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>+32 (+22)</t>
-        </is>
+      <c r="E141" t="n">
+        <v>13</v>
+      </c>
+      <c r="F141" t="n">
+        <v>32</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
@@ -4730,15 +4230,11 @@
       <c r="D142" t="n">
         <v>14</v>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>-14~-13</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>+35 (+25)</t>
-        </is>
+      <c r="E142" t="n">
+        <v>14</v>
+      </c>
+      <c r="F142" t="n">
+        <v>35</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
@@ -4760,15 +4256,11 @@
       <c r="D143" t="n">
         <v>13</v>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>-8~-7</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>+8~+9</t>
-        </is>
+      <c r="E143" t="n">
+        <v>8</v>
+      </c>
+      <c r="F143" t="n">
+        <v>8</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -4798,15 +4290,11 @@
       <c r="D144" t="n">
         <v>16</v>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>-8~-7</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E144" t="n">
+        <v>8</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
@@ -4826,15 +4314,11 @@
         <v>38</v>
       </c>
       <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>-14~-13</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>+65 (+49)</t>
-        </is>
+      <c r="E145" t="n">
+        <v>14</v>
+      </c>
+      <c r="F145" t="n">
+        <v>65</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
@@ -4860,15 +4344,11 @@
       <c r="D146" t="n">
         <v>16</v>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>-12~-10</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>+7~+9</t>
-        </is>
+      <c r="E146" t="n">
+        <v>12</v>
+      </c>
+      <c r="F146" t="n">
+        <v>7</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
@@ -4914,15 +4394,11 @@
       <c r="D148" t="n">
         <v>11</v>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>-6~-5</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>+7~+8</t>
-        </is>
+      <c r="E148" t="n">
+        <v>6</v>
+      </c>
+      <c r="F148" t="n">
+        <v>7</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -4930,1414 +4406,6 @@
         </is>
       </c>
       <c r="H148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>qcf+1+2</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C149" t="n">
-        <v>33</v>
-      </c>
-      <c r="D149" t="n">
-        <v>24</v>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>+11 (+2)</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>Balcony Break / Parries high or mid punches or kicks</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>qcf+1,2</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>M,SM</t>
-        </is>
-      </c>
-      <c r="C150" t="n">
-        <v>36</v>
-      </c>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>-14~-13</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>+24 (+9)</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Tornado / Combo from 1st hit / Available only on hit or block</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>qcf+1+2,P</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>M,M,T</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
-        <v>68</v>
-      </c>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>-8~+2</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>qcf+1,3+4</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C152" t="n">
-        <v>15</v>
-      </c>
-      <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>+24</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>qcf+2</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C153" t="n">
-        <v>18</v>
-      </c>
-      <c r="D153" t="n">
-        <v>25</v>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>-12~-11</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>+5~+6</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>+14~+15</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>qcf+2~1</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>L,M</t>
-        </is>
-      </c>
-      <c r="C154" t="n">
-        <v>43</v>
-      </c>
-      <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>-9~-8</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>+24 (+14)</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Balcony Break / Chip damage on block </t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>qcf+3</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>H,T</t>
-        </is>
-      </c>
-      <c r="C155" t="n">
-        <v>30</v>
-      </c>
-      <c r="D155" t="n">
-        <v>16</v>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>-7~-6</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Spike</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>qcf+4</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C156" t="n">
-        <v>15</v>
-      </c>
-      <c r="D156" t="n">
-        <v>18</v>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>-14~-12</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>+32 (+22)</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>Tornado</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>qcf,d,DF</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr"/>
-      <c r="C157" t="n">
-        <v>0</v>
-      </c>
-      <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>R.df+1+2</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>M,T</t>
-        </is>
-      </c>
-      <c r="C158" t="n">
-        <v>55</v>
-      </c>
-      <c r="D158" t="n">
-        <v>20</v>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>Rage Art / Damage increases with lower health / Erases opponent's recoverable health on hit</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Right throw</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="C159" t="n">
-        <v>40</v>
-      </c>
-      <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>Floor Break / Throw break 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>SZN.1</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C160" t="n">
-        <v>12</v>
-      </c>
-      <c r="D160" t="n">
-        <v>14</v>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>-3~-2</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>+8~+9</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>SZN.1+2</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C161" t="n">
-        <v>25</v>
-      </c>
-      <c r="D161" t="n">
-        <v>15</v>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>+0~+1</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>+23</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>Homing / Balcony Break / Chip damage on block</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>SZN.1,4</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>H,SM</t>
-        </is>
-      </c>
-      <c r="C162" t="n">
-        <v>37</v>
-      </c>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>-14~-5</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>+32 (-26)</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>Spike / Balcony Break / Combo from 1st hit / Available only on hit or block</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>SZN.1~F</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C163" t="n">
-        <v>12</v>
-      </c>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>+1~+2</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>+12~+13</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>SZN.2</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>M,SM</t>
-        </is>
-      </c>
-      <c r="C164" t="n">
-        <v>30</v>
-      </c>
-      <c r="D164" t="n">
-        <v>18</v>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>+7 (-2)</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heat Engager / Balcony Break </t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>SZN.3</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C165" t="n">
-        <v>16</v>
-      </c>
-      <c r="D165" t="n">
-        <v>16</v>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>-4~-3</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>+5~+6</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>SZN.3,2</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>M,SM</t>
-        </is>
-      </c>
-      <c r="C166" t="n">
-        <v>37</v>
-      </c>
-      <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>-14~-13</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>+24 (+9)</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>Tornado / Combo from 1st hit / Available only on hit or block</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>SZN.4</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C167" t="n">
-        <v>21</v>
-      </c>
-      <c r="D167" t="n">
-        <v>17</v>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>-16~-9</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>+2~+9</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>+26</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>SZN.B</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr"/>
-      <c r="C168" t="n">
-        <v>0</v>
-      </c>
-      <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>SZN.D</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr"/>
-      <c r="C169" t="n">
-        <v>0</v>
-      </c>
-      <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>SZN.U</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr"/>
-      <c r="C170" t="n">
-        <v>0</v>
-      </c>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>u+3</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C171" t="n">
-        <v>23</v>
-      </c>
-      <c r="D171" t="n">
-        <v>27</v>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>+6~+7</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>Chip damage on block</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>u+3,3</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>H,L</t>
-        </is>
-      </c>
-      <c r="C172" t="n">
-        <v>41</v>
-      </c>
-      <c r="D172" t="n">
-        <v>31</v>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>-16~-15</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>+16</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>u+3,3,3</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>H,L,M</t>
-        </is>
-      </c>
-      <c r="C173" t="n">
-        <v>63</v>
-      </c>
-      <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>-6~-4</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>+18</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>u+4</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C174" t="n">
-        <v>11</v>
-      </c>
-      <c r="D174" t="n">
-        <v>20</v>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>-9~-8</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>+22 (+12)</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>Balcony Break</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>ub+1</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C175" t="n">
-        <v>11</v>
-      </c>
-      <c r="D175" t="n">
-        <v>16</v>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>ub+1,2</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C176" t="n">
-        <v>24</v>
-      </c>
-      <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>-13~-12</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>-2~-1</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Spike / Combo from 1st hit with 7f delay</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>UB,b</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr"/>
-      <c r="C177" t="n">
-        <v>0</v>
-      </c>
-      <c r="D177" t="inlineStr"/>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>UB,b,3+4</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>,M!,M!,M!</t>
-        </is>
-      </c>
-      <c r="C178" t="n">
-        <v>60</v>
-      </c>
-      <c r="D178" t="inlineStr"/>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>-19</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Spike</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>uf+1+4</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="C179" t="n">
-        <v>40</v>
-      </c>
-      <c r="D179" t="n">
-        <v>12</v>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr"/>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Throw break 1+2 / Can side switch on hit</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>uf+3</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C180" t="n">
-        <v>20</v>
-      </c>
-      <c r="D180" t="n">
-        <v>29</v>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Spike</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>uf+3+4</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C181" t="n">
-        <v>17</v>
-      </c>
-      <c r="D181" t="n">
-        <v>23</v>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>-16~-14</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Spike</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>uf+3+4,3+4</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C182" t="n">
-        <v>32</v>
-      </c>
-      <c r="D182" t="inlineStr"/>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>-25~-21</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>uf+3+4,4</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>M,L</t>
-        </is>
-      </c>
-      <c r="C183" t="n">
-        <v>26</v>
-      </c>
-      <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>-11~-10</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>+0~+1</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>uf+3+4,4,2</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>M,L,M</t>
-        </is>
-      </c>
-      <c r="C184" t="n">
-        <v>47</v>
-      </c>
-      <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>uf+4</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C185" t="n">
-        <v>14</v>
-      </c>
-      <c r="D185" t="n">
-        <v>20</v>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>-9~-8</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>+22 (+12)</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Balcony Break</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>uf+4,4</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C186" t="n">
-        <v>34</v>
-      </c>
-      <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>+9~12</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>+21</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Balcony Break</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>uf+4,4~B</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C187" t="n">
-        <v>34</v>
-      </c>
-      <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>-16~-15</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>+15 (+5)</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>uf,n,4</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C188" t="n">
-        <v>20</v>
-      </c>
-      <c r="D188" t="n">
-        <v>23</v>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>-13~-11</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>+32 (+22)</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>ws1</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C189" t="n">
-        <v>14</v>
-      </c>
-      <c r="D189" t="n">
-        <v>14</v>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>-14~-13</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>+35 (+25)</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>ws2</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C190" t="n">
-        <v>17</v>
-      </c>
-      <c r="D190" t="n">
-        <v>13</v>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>-8~-7</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>+8~+9</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>+37 (+27)</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>Elbow</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>ws3</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C191" t="n">
-        <v>18</v>
-      </c>
-      <c r="D191" t="n">
-        <v>16</v>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>-8~-7</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>ws3,2</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>M,SM</t>
-        </is>
-      </c>
-      <c r="C192" t="n">
-        <v>38</v>
-      </c>
-      <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>-14~-13</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>+65 (+49)</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>Tornado / Combo from 1st hit / Available only on hit or block</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>ws3+4</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C193" t="n">
-        <v>20</v>
-      </c>
-      <c r="D193" t="n">
-        <v>16</v>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>-12~-10</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>+7~+9</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>Heat Engager / Homing / Balcony Break</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>ws3+4~B</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C194" t="n">
-        <v>20</v>
-      </c>
-      <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>ws4</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C195" t="n">
-        <v>18</v>
-      </c>
-      <c r="D195" t="n">
-        <v>11</v>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>-6~-5</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>+7~+8</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/raven-tekken-8-frame-data.xlsx
+++ b/data/raven-tekken-8-frame-data.xlsx
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
@@ -519,7 +519,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F3" t="n">
         <v>15</v>
@@ -547,7 +547,7 @@
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="n">
         <v>7</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F6" t="n">
         <v>6</v>
@@ -645,7 +645,7 @@
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F8" t="n">
         <v>15</v>
@@ -675,7 +675,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F10" t="n">
         <v>8</v>
@@ -731,7 +731,7 @@
         <v>16</v>
       </c>
       <c r="E11" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
@@ -759,7 +759,7 @@
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F12" t="n">
         <v>-2</v>
@@ -789,7 +789,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F14" t="n">
         <v>8</v>
@@ -845,7 +845,7 @@
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F15" t="n">
         <v>3</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F16" t="n">
         <v>5</v>
@@ -897,7 +897,7 @@
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F17" t="n">
         <v>39</v>
@@ -929,7 +929,7 @@
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F18" t="n">
         <v>-3</v>
@@ -971,7 +971,7 @@
         <v>25</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -999,7 +999,7 @@
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>39</v>
+        <v>-39</v>
       </c>
       <c r="F21" t="n">
         <v>-8</v>
@@ -1025,7 +1025,7 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F22" t="n">
         <v>3</v>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F23" t="n">
         <v>7</v>
@@ -1079,7 +1079,7 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F24" t="n">
         <v>31</v>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F25" t="n">
         <v>4</v>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F26" t="n">
         <v>14</v>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F27" t="n">
         <v>15</v>
@@ -1189,7 +1189,7 @@
         <v>16</v>
       </c>
       <c r="E28" t="n">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
         <v>10</v>
@@ -1219,7 +1219,7 @@
         <v>28</v>
       </c>
       <c r="E29" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F29" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F32" t="n">
         <v>-3</v>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F33" t="n">
         <v>6</v>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="F34" t="n">
         <v>3</v>
@@ -1373,7 +1373,7 @@
         <v>21</v>
       </c>
       <c r="E35" t="n">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="F35" t="n">
         <v>12</v>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F36" t="n">
         <v>4</v>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F37" t="n">
         <v>24</v>
@@ -1463,7 +1463,7 @@
         <v>27</v>
       </c>
       <c r="E38" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F38" t="n">
         <v>15</v>
@@ -1509,7 +1509,7 @@
         <v>14</v>
       </c>
       <c r="E40" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F40" t="n">
         <v>-1</v>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F41" t="n">
         <v>6</v>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="F44" t="n">
         <v>6</v>
@@ -1677,7 +1677,7 @@
         <v>40</v>
       </c>
       <c r="E46" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
         <v>28</v>
@@ -1707,7 +1707,7 @@
         <v>17</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F47" t="n">
         <v>5</v>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -1761,7 +1761,7 @@
         <v>8</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F49" t="n">
         <v>5</v>
@@ -1787,7 +1787,7 @@
         <v>15</v>
       </c>
       <c r="E50" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F50" t="n">
         <v>30</v>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F51" t="n">
         <v>40</v>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F53" t="n">
         <v>3</v>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>7</v>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F55" t="n">
         <v>2</v>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F56" t="n">
         <v>2</v>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F57" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>15</v>
       </c>
       <c r="E59" t="n">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="F59" t="n">
         <v>43</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F61" t="n">
         <v>18</v>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F62" t="n">
         <v>5</v>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
-        <v>36</v>
+        <v>-36</v>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
@@ -2165,7 +2165,7 @@
         <v>19</v>
       </c>
       <c r="E64" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F64" t="n">
         <v>44</v>
@@ -2195,7 +2195,7 @@
         <v>16</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F65" t="n">
         <v>6</v>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="F66" t="n">
         <v>42</v>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F67" t="n">
         <v>2</v>
@@ -2277,7 +2277,7 @@
         <v>18</v>
       </c>
       <c r="E68" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F68" t="n">
         <v>41</v>
@@ -2327,7 +2327,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F70" t="n">
         <v>6</v>
@@ -2353,7 +2353,7 @@
         <v>25</v>
       </c>
       <c r="E71" t="n">
-        <v>26</v>
+        <v>-26</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -2379,7 +2379,7 @@
         <v>25</v>
       </c>
       <c r="E72" t="n">
-        <v>26</v>
+        <v>-26</v>
       </c>
       <c r="F72" t="n">
         <v>70</v>
@@ -2409,7 +2409,7 @@
         <v>12</v>
       </c>
       <c r="E73" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F73" t="n">
         <v>-4</v>
@@ -2435,7 +2435,7 @@
         <v>16</v>
       </c>
       <c r="E74" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F74" t="n">
         <v>6</v>
@@ -2507,7 +2507,7 @@
         <v>17</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F77" t="n">
         <v>6</v>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F78" t="n">
         <v>14</v>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F79" t="n">
         <v>4</v>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F80" t="n">
         <v>24</v>
@@ -2617,7 +2617,7 @@
         <v>13</v>
       </c>
       <c r="E81" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F81" t="n">
         <v>3</v>
@@ -2651,7 +2651,7 @@
         <v>25</v>
       </c>
       <c r="E82" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F82" t="n">
         <v>5</v>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="n">
-        <v>36</v>
+        <v>-36</v>
       </c>
       <c r="F83" t="n">
         <v>-22</v>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>16</v>
       </c>
       <c r="E85" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F85" t="n">
         <v>2</v>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F86" t="n">
         <v>5</v>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F87" t="n">
         <v>8</v>
@@ -2811,7 +2811,7 @@
         <v>21</v>
       </c>
       <c r="E88" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F88" t="n">
         <v>8</v>
@@ -2837,7 +2837,7 @@
         <v>23</v>
       </c>
       <c r="E89" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F89" t="n">
         <v>24</v>
@@ -2879,7 +2879,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F91" t="n">
         <v>6</v>
@@ -2905,7 +2905,7 @@
         <v>11</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F92" t="n">
         <v>7</v>
@@ -2931,7 +2931,7 @@
         <v>15</v>
       </c>
       <c r="E93" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -2957,7 +2957,7 @@
         <v>21</v>
       </c>
       <c r="E94" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F94" t="n">
         <v>-2</v>
@@ -2987,7 +2987,7 @@
         <v>13</v>
       </c>
       <c r="E95" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F95" t="n">
         <v>5</v>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F96" t="n">
         <v>8</v>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F97" t="n">
         <v>2</v>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F98" t="n">
         <v>5</v>
@@ -3093,7 +3093,7 @@
         <v>28</v>
       </c>
       <c r="E99" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F99" t="n">
         <v>5</v>
@@ -3123,7 +3123,7 @@
         <v>24</v>
       </c>
       <c r="E100" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F100" t="n">
         <v>4</v>
@@ -3153,7 +3153,7 @@
         <v>14</v>
       </c>
       <c r="E101" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F101" t="n">
         <v>8</v>
@@ -3179,7 +3179,7 @@
         <v>24</v>
       </c>
       <c r="E102" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F102" t="n">
         <v>11</v>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F103" t="n">
         <v>24</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>25</v>
       </c>
       <c r="E106" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F106" t="n">
         <v>5</v>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F107" t="n">
         <v>24</v>
@@ -3347,7 +3347,7 @@
         <v>16</v>
       </c>
       <c r="E108" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F108" t="n">
         <v>-4</v>
@@ -3377,7 +3377,7 @@
         <v>18</v>
       </c>
       <c r="E109" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F109" t="n">
         <v>32</v>
@@ -3423,7 +3423,7 @@
         <v>20</v>
       </c>
       <c r="E111" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F112" t="n">
         <v>-4</v>
@@ -3481,7 +3481,7 @@
         <v>14</v>
       </c>
       <c r="E113" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F113" t="n">
         <v>8</v>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F115" t="n">
         <v>32</v>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
         <v>12</v>
@@ -3589,7 +3589,7 @@
         <v>18</v>
       </c>
       <c r="E117" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F117" t="n">
         <v>7</v>
@@ -3619,7 +3619,7 @@
         <v>16</v>
       </c>
       <c r="E118" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F118" t="n">
         <v>5</v>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F119" t="n">
         <v>24</v>
@@ -3673,7 +3673,7 @@
         <v>17</v>
       </c>
       <c r="E120" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F120" t="n">
         <v>2</v>
@@ -3751,7 +3751,7 @@
         <v>27</v>
       </c>
       <c r="E124" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F124" t="n">
         <v>6</v>
@@ -3781,7 +3781,7 @@
         <v>31</v>
       </c>
       <c r="E125" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F125" t="n">
         <v>16</v>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F126" t="n">
         <v>18</v>
@@ -3831,7 +3831,7 @@
         <v>20</v>
       </c>
       <c r="E127" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F127" t="n">
         <v>22</v>
@@ -3861,7 +3861,7 @@
         <v>16</v>
       </c>
       <c r="E128" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F128" t="n">
         <v>5</v>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F129" t="n">
         <v>-2</v>
@@ -3957,7 +3957,7 @@
         <v>12</v>
       </c>
       <c r="E132" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -3987,7 +3987,7 @@
         <v>29</v>
       </c>
       <c r="E133" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F133" t="n">
         <v>20</v>
@@ -4017,7 +4017,7 @@
         <v>23</v>
       </c>
       <c r="E134" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F134" t="n">
         <v>14</v>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="n">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="F135" t="n">
         <v>6</v>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F137" t="n">
         <v>10</v>
@@ -4119,7 +4119,7 @@
         <v>20</v>
       </c>
       <c r="E138" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F138" t="n">
         <v>22</v>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F139" t="n">
         <v>9</v>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F140" t="n">
         <v>15</v>
@@ -4205,7 +4205,7 @@
         <v>23</v>
       </c>
       <c r="E141" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F141" t="n">
         <v>32</v>
@@ -4231,7 +4231,7 @@
         <v>14</v>
       </c>
       <c r="E142" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F142" t="n">
         <v>35</v>
@@ -4257,7 +4257,7 @@
         <v>13</v>
       </c>
       <c r="E143" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F143" t="n">
         <v>8</v>
@@ -4291,7 +4291,7 @@
         <v>16</v>
       </c>
       <c r="E144" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F145" t="n">
         <v>65</v>
@@ -4345,7 +4345,7 @@
         <v>16</v>
       </c>
       <c r="E146" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F146" t="n">
         <v>7</v>
@@ -4395,7 +4395,7 @@
         <v>11</v>
       </c>
       <c r="E148" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F148" t="n">
         <v>7</v>
